--- a/templates/sampleDummyTemplate.xlsx
+++ b/templates/sampleDummyTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\coldbox-base\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6792C30-E2CB-4C7D-8967-F9E4E31D94D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED86360E-48AA-494E-96E7-B27C6BF2C97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="1710" windowWidth="21600" windowHeight="12735" xr2:uid="{A2EBC939-AD02-493C-9AFE-2E61DA0103F2}"/>
+    <workbookView xWindow="61980" yWindow="4665" windowWidth="21600" windowHeight="12735" xr2:uid="{A2EBC939-AD02-493C-9AFE-2E61DA0103F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
